--- a/finanzas_hogar.xlsx
+++ b/finanzas_hogar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,106 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-05-27</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ingreso</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ahorro</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ingreso de venta de galletas</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-05-27</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Gasto</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Alimentos</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>gasto alimentos</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-07-05</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gasto</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Alimentos</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>490000</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Le entrego plata a Debora</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-07-05</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ingreso</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Alimentos</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>490000</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Plñata del mercado</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
